--- a/data/trans_dic/P36B01_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B01_2023-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,44; 100,0</t>
+          <t>95,19; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>96,28; 99,61</t>
+          <t>96,32; 99,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,7; 99,36</t>
+          <t>96,68; 99,42</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,31; 99,42</t>
+          <t>97,32; 99,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,06; 98,29</t>
+          <t>96,12; 98,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,12; 98,57</t>
+          <t>97,11; 98,61</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,92; 95,75</t>
+          <t>91,78; 95,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,03; 96,31</t>
+          <t>94,1; 96,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,48; 95,63</t>
+          <t>93,4; 95,6</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,22; 93,19</t>
+          <t>88,43; 93,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,95; 94,72</t>
+          <t>90,0; 94,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,16; 93,69</t>
+          <t>89,95; 93,79</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,83; 97,6</t>
+          <t>94,77; 97,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,26; 97,62</t>
+          <t>95,3; 97,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,49; 97,36</t>
+          <t>95,54; 97,35</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>93,97; 95,83</t>
+          <t>94,06; 95,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,74; 96,14</t>
+          <t>94,72; 96,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,56; 95,75</t>
+          <t>94,68; 95,78</t>
         </is>
       </c>
     </row>
